--- a/doc/language.xlsx
+++ b/doc/language.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xy1267\work\career\jzalgo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaun/projects/palgo/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F29CB5E-38B9-4277-B068-2E7F88045E7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408F3F87-967D-B44E-ADD9-9D0975F765D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{12D909F0-D02B-4966-97C1-E0A2F2F3A50D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{12D909F0-D02B-4966-97C1-E0A2F2F3A50D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Functions</t>
   </si>
@@ -302,14 +302,6 @@
   </si>
   <si>
     <t>sort</t>
-  </si>
-  <si>
-    <t>#include &lt;algorithm&gt;
-struct {
-        bool operator()(int a, int b) const{ return a &gt; b;}   
-} customLess; //greater in front
-vector&lt;int&gt; v {1,3,4,2,5};
-sort(v.begin(), v.end(), customGreater);</t>
   </si>
   <si>
     <t>a.sort(key=lambda x:x, reverse=True)</t>
@@ -410,13 +402,6 @@
   </si>
   <si>
     <t>container lookup</t>
-  </si>
-  <si>
-    <t>auto it = c.find(k);
-if (it == c.end()) {}; //not found
-if (c.count(k)) {}; //found it
-auto it = c.lower_bound(it1, it2, val); //first it &gt;= val
-auto it = c.upper_bound(it1,it2,val); //first it &gt; val</t>
   </si>
   <si>
     <t xml:space="preserve"> //top element is by reverse of T's order, no compare function object
@@ -443,11 +428,6 @@
 top = heappop(heap)</t>
   </si>
   <si>
-    <t>Collection&lt;T&gt; c = new ArrayList&lt;T&gt;();
-Iterator&lt;T&gt; iterator = c.iterator();
-while (iterator.hasNext()) T = c.next();</t>
-  </si>
-  <si>
     <t>c.get(i); c.get(k); c.peek()</t>
   </si>
   <si>
@@ -497,12 +477,35 @@
 PriorityQueue&lt;T&gt; heap2 = new PriorityQueue&lt;&gt;(new Comparator&lt;T&gt;(){ public int compare(T a,T b){ return  b.key - a.key;}}); //larger T.key in front
                  </t>
   </si>
+  <si>
+    <t>#include &lt;algorithm&gt;
+struct {
+        bool operator()(int a, int b) const{ return a &gt; b;}   
+} customGreater; //greater in front
+vector&lt;int&gt; v {1,3,4,2,5};
+sort(v.begin(), v.end(), customGreater()); //add  ()to struct compare, object needed</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Collection&lt;T&gt; c = new ArrayList&lt;T&gt;();
+Iterator&lt;T&gt; iterator = c.iterator();
+while (iterator.hasNext()) T t = c.next();</t>
+  </si>
+  <si>
+    <t>auto it = c.find(k);
+if (it == c.end()) {}; //not found
+if (c.count(k)) {}; //found it
+auto it = lower_bound(it1, it2, val); //first it &gt;= val
+auto it = upper_bound(it1,it2,val); //first it &gt; val</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,12 +517,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -903,19 +908,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B58858-851D-4CD1-9183-1CC4F3A1F66C}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -929,7 +934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33.5" customHeight="1">
+    <row r="2" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -943,21 +948,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="116">
+    <row r="3" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="58">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -968,12 +973,12 @@
         <v>34</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -985,7 +990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="87">
+    <row r="6" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -999,7 +1004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="58">
+    <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="72.5">
+    <row r="8" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1024,56 +1029,56 @@
         <v>55</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="72.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="246.5">
+    <row r="12" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="101.5">
+    <row r="14" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1087,13 +1092,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="101.5">
+    <row r="16" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -1107,19 +1112,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="72.5">
+    <row r="19" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1133,7 +1138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="43.5">
+    <row r="20" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1147,13 +1152,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -1167,7 +1172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29">
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -1177,9 +1182,11 @@
       <c r="C23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="72.5">
+      <c r="D23" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1193,7 +1200,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1208,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -1215,7 +1222,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -1229,21 +1236,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
@@ -1257,77 +1264,77 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="246.5">
+    <row r="30" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="6" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="43.5">
-      <c r="A31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="29">
-      <c r="A32" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="58">
-      <c r="A33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" ht="58">
-      <c r="A34" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" ht="72.5">
-      <c r="A35" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D35" s="7"/>
     </row>

--- a/doc/language.xlsx
+++ b/doc/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaun/projects/palgo/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408F3F87-967D-B44E-ADD9-9D0975F765D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08988F3F-8A21-D145-B801-5818E2977335}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{12D909F0-D02B-4966-97C1-E0A2F2F3A50D}"/>
   </bookViews>
@@ -107,16 +107,10 @@
     <t>min</t>
   </si>
   <si>
-    <t>min(a,b);</t>
-  </si>
-  <si>
     <t>Math.min(a,b);</t>
   </si>
   <si>
     <t>max</t>
-  </si>
-  <si>
-    <t>max(a,b);</t>
   </si>
   <si>
     <t>Math.max(a,b);</t>
@@ -192,13 +186,6 @@
     <t>class MyClass { public a; private b};</t>
   </si>
   <si>
-    <t xml:space="preserve">string s = "abc"; //mutable in c++
-bool flag = s.empty();
-int len = s.size(); //length() okay too
-char c = s[0];
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">stack&lt;T&gt; st;
 st.push(t); 
 T t = st.top(); st.pop(); //pop return void
@@ -214,13 +201,6 @@
   <si>
     <t xml:space="preserve">pair&lt;T1,T2&gt; p;
 T1 first = p.first; T2 second = p.second;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String s = "abc"; //immutable in java
-boolean flag = s.isEmpty();
-int len = s.length();
-char c = s.charAt(0);
 </t>
   </si>
   <si>
@@ -284,12 +264,6 @@
 dek.appendleft(first); first = dek.popleft();
 if (len(dek) &gt;0) {};
 </t>
-  </si>
-  <si>
-    <t>s = "abc"
-int n = len(s)
-firstc = s[0]
-lastc = s[-1]</t>
   </si>
   <si>
     <t>min(a,b)</t>
@@ -499,6 +473,39 @@
 if (c.count(k)) {}; //found it
 auto it = lower_bound(it1, it2, val); //first it &gt;= val
 auto it = upper_bound(it1,it2,val); //first it &gt; val</t>
+  </si>
+  <si>
+    <t>string s = "abc"; //mutable in c++
+bool flag = s.empty();
+int len = s.size(); //length() okay too
+char c = s[0];
+string s = to_string(3.24232);</t>
+  </si>
+  <si>
+    <t>String s = "abc"; //immutable in java
+boolean flag = s.isEmpty();
+int len = s.length();
+char c = s.charAt(0);
+String s =  String.valueOf(3.24);
+String s = Double.toString(3.11); 
+String s = Integer.toString(55);</t>
+  </si>
+  <si>
+    <t>s = "abc"
+int n = len(s)
+firstc = s[0]
+lastc = s[-1]
+s = str(3.14)</t>
+  </si>
+  <si>
+    <t>max(a,b);
+auto it = max_element(v.begin(),v.end(), cmp);
+cout &lt;&lt; *it &lt;&lt; endl;</t>
+  </si>
+  <si>
+    <t>min(a,b);
+auto it = min_element(begin(v), end(v), cmp);
+cout &lt;&lt; "min=" &lt;&lt; *it &lt;&lt; endl;</t>
   </si>
 </sst>
 </file>
@@ -906,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B58858-851D-4CD1-9183-1CC4F3A1F66C}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -939,13 +946,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="112" x14ac:dyDescent="0.2">
@@ -953,13 +960,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -967,24 +974,24 @@
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -995,10 +1002,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1009,10 +1016,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1023,13 +1030,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="80" x14ac:dyDescent="0.2">
@@ -1037,13 +1044,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1063,13 +1070,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1083,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1103,13 +1110,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1129,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -1143,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1177,27 +1184,27 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1208,135 +1215,141 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="256" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/language.xlsx
+++ b/doc/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaun/projects/palgo/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08988F3F-8A21-D145-B801-5818E2977335}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A86DBF-F2B7-7941-A20E-29EFD233998C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{12D909F0-D02B-4966-97C1-E0A2F2F3A50D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
   <si>
     <t>Functions</t>
   </si>
@@ -506,6 +506,27 @@
     <t>min(a,b);
 auto it = min_element(begin(v), end(v), cmp);
 cout &lt;&lt; "min=" &lt;&lt; *it &lt;&lt; endl;</t>
+  </si>
+  <si>
+    <t>constructor</t>
+  </si>
+  <si>
+    <t>struct ResTyep {
+  bool a_found, b_found;
+  TreeNode * node;
+  ResType(bool a, bool b, TreeNode * n): a_found(a), b_found(b), node(n) {}
+};
+ResType r{0,0, NULL};</t>
+  </si>
+  <si>
+    <t>public class ResType {
+  boolean a_found, b_found;
+  TreeNode node;
+  ResType(boolean a, boolean b, TreeNode n) {
+    a_found = a; b_found = b; node = n;
+  }
+}
+ResType r = new ResType(0,0,null);</t>
   </si>
 </sst>
 </file>
@@ -550,7 +571,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -573,11 +594,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -597,6 +629,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B58858-851D-4CD1-9183-1CC4F3A1F66C}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1351,6 +1386,17 @@
       </c>
       <c r="D36" s="7"/>
     </row>
+    <row r="37" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
